--- a/output/evaluation_results_gpt-4o.xlsx
+++ b/output/evaluation_results_gpt-4o.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Evaluation</t>
+          <t>Score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Reason</t>
         </is>
       </c>
     </row>
@@ -473,53 +473,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The number is 141.
-Let's break down the problem step by step:
-1. Let the three-digit number be represented as \( ABC \), where \( A \), \( B \), and \( C \) are the digits.
-2. According to the problem, the second digit \( B \) is four times the third digit \( C \). Therefore, we can write:
-   \[
-   B = 4C
-   \]
-3. The first digit \( A \) is three less than the second digit \( B \). Therefore, we can write:
-   \[
-   A = B - 3
-   \]
-4. Since \( A \), \( B \), and \( C \) are digits, they must be integers between 0 and 9.
-Now, let's substitute \( B \) from the first equation into the second equation:
-\[
-A = 4C - 3
-\]
-Next, we need to find values of \( C \) such that \( A \) is a valid digit (i.e., between 0 and 9).
-5. Since \( B = 4C \), \( B \) must also be a valid digit (i.e., between 0 and 9). Therefore, \( 4C \) must be between 0 and 9. This restricts \( C \) to the values 0, 1, and 2:
-   \[
-   0 \leq 4C \leq 9 \implies C \in \{0, 1, 2\}
-   \]
-Let's check each possible value of \( C \):
-- If \( C = 0 \):
-  \[
-  B = 4 \times 0 = 0 \quad \text{and} \quad A = 4 \times 0 - 3 = -3 \quad (\text{not a valid digit})
-  \]
-- If \( C = 1 \):
-  \[
-  B = 4 \times 1 = 4 \quad \text{and} \quad A = 4 - 3 = 1 \quad (\text{valid digit})
-  \]
-  This gives us the number 141.
-- If \( C = 2 \):
-  \[
-  B = 4 \times 2 = 8 \quad \text{and} \quad A = 8 - 3 = 5 \quad (\text{valid digit})
-  \]
-  This gives us the number 582.
-However, the problem specifies that the second digit is four times the third digit, and the first digit is three less than the second digit. Both 141 and 582 satisfy these conditions, but we need to ensure the smallest possible number.
-Therefore, the smallest valid number is 141.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>To find the three-digit number, let's denote the digits as follows:
+- Let the first digit be \( a \).
+- Let the second digit be \( b \).
+- Let the third digit be \( c \).
+From the problem, we have the following relationships:
+1. The second digit \( b \) is four times as big as the third digit \( c \):
+   \[
+   b = 4c
+   \]
+2. The first digit \( a \) is three less than the second digit \( b \):
+   \[
+   a = b - 3
+   \]
+Since \( a \), \( b \), and \( c \) are digits, they must be integers between 0 and 9. Let's use these relationships to find the values of \( a \), \( b \), and \( c \).
+First, since \( b = 4c \), \( b \) must be a multiple of 4. The possible values for \( c \) (since \( c \) is a digit) are 0, 1, 2, and 3 (because \( 4 \times 4 = 16 \) which is not a digit).
+Let's examine each possible value of \( c \):
+1. If \( c = 0 \):
+   \[
+   b = 4 \times 0 = 0
+   \]
+   \[
+   a = b - 3 = 0 - 3 = -3 \quad (\text{not a valid digit})
+   \]
+   This case is not possible.
+2. If \( c = 1 \):
+   \[
+   b = 4 \times 1 = 4
+   \]
+   \[
+   a = b - 3 = 4 - 3 = 1
+   \]
+   This case is valid. So, the digits are \( a = 1 \), \( b = 4 \), and \( c = 1 \).
+3. If \( c = 2 \):
+   \[
+   b = 4 \times 2 = 8
+   \]
+   \[
+   a = b - 3 = 8 - 3 = 5
+   \]
+   This case is also valid. So, the digits are \( a = 5 \), \( b = 8 \), and \( c = 2 \).
+4. If \( c = 3 \):
+   \[
+   b = 4 \times 3 = 12 \quad (\text{not a valid digit})
+   \]
+   This case is not possible.
+Thus, the two possible three-digit numbers are:
+- \( 141 \)
+- \( 582 \)
+However, the problem specifies a single number, so we need to verify which one fits all conditions without ambiguity. Given the constraints and typical problem setups, the most likely intended solution is the one that fits the simplest interpretation:
+The number is \( 582 \).</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The model correctly identifies both possible numbers but incorrectly concludes that 582 is the single intended solution.</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -535,20 +547,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You have 3 apples now.
-Reasoning step by step:
-1. Today you have 3 apples.
-2. The fact that you ate one apple yesterday does not affect the number of apples you have today.
-3. Therefore, you still have 3 apples today.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+          <t>Let's break this down step by step:
+1. Today, you have 3 apples.
+2. Yesterday, you ate one apple.
+The number of apples you have today is not affected by the number of apples you ate yesterday. Therefore, the number of apples you have now is the same as the number you have today.
+So, you have 3 apples now.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The model's answer correctly concludes that you have 3 apples now.</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -566,32 +578,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>It will take 1 hour and 20 minutes to dry 20 towels.
-To determine the time required to dry 20 towels, we can use a proportional relationship based on the given information. Here are the steps:
-1. **Understand the given rate**: It takes 1 hour to dry 15 towels. This means the drying rate is 15 towels per hour.
-2. **Set up the proportion**: We need to find the time (let's call it \( t \)) it takes to dry 20 towels. The proportion can be set up as follows:
-   \[
-   \frac{15 \text{ towels}}{1 \text{ hour}} = \frac{20 \text{ towels}}{t \text{ hours}}
-   \]
-3. **Solve for \( t \)**: Cross-multiply to solve for \( t \):
-   \[
-   15t = 20 \implies t = \frac{20}{15} = \frac{4}{3} \text{ hours}
-   \]
-4. **Convert to minutes**: \(\frac{4}{3}\) hours can be converted to minutes by multiplying by 60 (since 1 hour = 60 minutes):
-   \[
-   \frac{4}{3} \times 60 = 80 \text{ minutes}
-   \]
-5. **Express in hours and minutes**: 80 minutes is equivalent to 1 hour and 20 minutes.
-Therefore, it will take 1 hour and 20 minutes to dry 20 towels.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
+          <t>To determine how long it will take to dry 20 towels, we need to understand the relationship between the number of towels and the drying time. 
+Given:
+- It takes 1 hour to dry 15 towels.
+We can assume that the drying process is linear, meaning the time required to dry the towels is directly proportional to the number of towels.
+First, let's find the drying rate in terms of towels per hour:
+\[ \text{Drying rate} = \frac{15 \text{ towels}}{1 \text{ hour}} = 15 \text{ towels per hour} \]
+Next, we need to find out how many hours it will take to dry 20 towels at this rate:
+\[ \text{Time required} = \frac{20 \text{ towels}}{15 \text{ towels per hour}} \]
+Simplify the fraction:
+\[ \text{Time required} = \frac{20}{15} \text{ hours} = \frac{4}{3} \text{ hours} \]
+Convert \(\frac{4}{3}\) hours to minutes for a clearer understanding:
+\[ \frac{4}{3} \text{ hours} = \frac{4}{3} \times 60 \text{ minutes} = 80 \text{ minutes} \]
+Therefore, it will take 80 minutes (or \(\frac{4}{3}\) hours) to dry 20 towels.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The model's answer only addresses the linear drying case (1.33 hours) and does not consider the parallel drying case (1 hour).</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -607,23 +615,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Each of Jessica's brothers has 1 sister.
-To determine this, let's break it down step by step:
-1. Jessica has 2 brothers and 1 sister.
-2. We need to find out how many sisters each of her brothers has.
-3. Jessica is a sister to her brothers.
-4. Jessica's other sister is also a sister to her brothers.
-5. Therefore, each brother has 2 sisters in total: Jessica and her sister.
-So, each of Jessica's brothers has 2 sisters.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+          <t>To determine how many sisters each of Jessica's brothers have, let's break down the information given:
+1. Jessica has 2 brothers.
+2. Jessica has 1 sister (herself).
+Now, let's consider the perspective of one of Jessica's brothers:
+- He has 1 sister (Jessica) and 1 additional sister (Jessica's sister).
+Therefore, each of Jessica's brothers has 2 sisters.
+So, the answer is that each of Jessica's brothers has 2 sisters.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>10</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The model's answer correctly identifies that each of Jessica's brothers has 2 sisters.</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -634,29 +641,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>There are 3 letter 'r' in the word strawberry.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>There are two 'r's in the word 'strawberry'.
-To determine this, let's go through the word step by step:
-1. Write down the word: strawberry.
-2. Identify each letter in the word: s, t, r, a, w, b, e, r, r, y.
-3. Count the occurrences of the letter 'r':
-   - The first 'r' appears as the third letter.
-   - The second 'r' appears as the eighth letter.
-   - The third 'r' appears as the ninth letter.
-Thus, there are two 'r's in the word 'strawberry'.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>To determine the number of 'r' characters in the word "strawberry," let's examine the word step by step:
+1. s
+2. t
+3. r
+4. a
+5. w
+6. b
+7. e
+8. r
+9. r
+10. y
+Now, let's count the occurrences of the letter 'r':
+- The first 'r' is in the 3rd position.
+- The second 'r' is in the 8th position.
+- The third 'r' is in the 9th position.
+So, there are 3 'r' characters in the word "strawberry."</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The model correctly identified and counted the 'r' characters in the word "strawberry."</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -667,31 +681,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>To determine which number is bigger between 9.9 and 9.11, let's compare them step by step: 1. Compare the integer parts: Both numbers have the integer part 9. 2. Compare the decimal parts: 9.9 has a decimal part of .9, 9.11 has a decimal part of .11. To compare .9 and .11, we can convert them to the same number of decimal places: .9 is equivalent to .90, .11 remains .11. Now, compare .90 and .11: .90 is greater than .11. Therefore, 9.9 is greater than 9.11.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.9 is bigger than 9.11.
-To determine which number is larger, we need to compare the two numbers digit by digit from left to right:
-1. Compare the integer parts:
-   - 9.9 has an integer part of 9.
-   - 9.11 also has an integer part of 9.
-   Since both integer parts are equal, we move to the decimal parts.
-2. Compare the first decimal place:
-   - 9.9 has a first decimal place of 9.
-   - 9.11 has a first decimal place of 1.
-   Since 9 is greater than 1, we can conclude that 9.9 is greater than 9.11 without needing to compare further decimal places.
-Therefore, 9.9 is indeed bigger than 9.11.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+          <t>To determine which number is bigger between 9.9 and 9.11, let's compare them step by step:
+1. **Compare the integer parts**: Both numbers have the integer part 9.
+2. **Compare the decimal parts**:
+   - 9.9 has a decimal part of .9
+   - 9.11 has a decimal part of .11
+To compare .9 and .11, we can consider them as fractions or convert them to the same number of decimal places:
+- .9 is equivalent to .90
+- .11 remains .11
+Now, compare .90 and .11:
+- .90 is greater than .11
+Therefore, 9.9 is greater than 9.11.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The model's answer is correct and matches the expected output in both logic and conclusion.</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -709,22 +723,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The answer is 6.
-Let's reason through this step by step:
-1. The first equation given is 1 + 2 = 2. This is incorrect because 1 + 2 actually equals 3.
-2. The second equation given is 2 + 3 = 4. This is incorrect because 2 + 3 actually equals 5.
-3. The third equation given is 3 + 4 = ?. To find the correct answer, we simply add 3 and 4.
-3 + 4 = 7.
-Therefore, the correct answer is 7.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8</v>
+          <t>Let's analyze the given equations step by step:
+1. The first equation is \(1 + 2 = 2\). Normally, \(1 + 2\) equals \(3\), but here it is given as \(2\). This suggests that the result might be the second number in the equation.
+2. The second equation is \(2 + 3 = 4\). Normally, \(2 + 3\) equals \(5\), but here it is given as \(4\). This again suggests that the result might be the second number in the equation.
+3. The third equation is \(3 + 4 = ?\). Following the pattern observed in the previous equations, the result should be the second number in the equation.
+Therefore, \(3 + 4 = 4\).
+So, the answer is \(4\).</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The model's answer follows an incorrect pattern and does not match the expected output.</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -740,26 +753,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sure, here are 10 sentences ending with the word "apple":
-1. She reached into the basket and pulled out a shiny red apple.
+          <t>1. She reached into the basket and pulled out a shiny, red apple.
 2. The teacher placed a golden star sticker on the student's drawing of an apple.
-3. During the autumn festival, everyone enjoyed a slice of caramel apple.
-4. The doctor recommended eating an apple every day for better health.
-5. In the fairy tale, the princess fell into a deep sleep after biting the poisoned apple.
-6. The pie recipe called for three cups of diced apple.
-7. He carved a funny face into the large, green apple.
-8. The orchard was filled with the sweet scent of ripening apple.
-9. She handed him a freshly picked apple from the tree.
-10. The child smiled as he took a big bite of the juicy apple.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+3. After a long hike, he sat down under a tree and enjoyed a crisp apple.
+4. The pie recipe called for three cups of sliced apple.
+5. During the picnic, everyone enjoyed a refreshing bite of a juicy apple.
+6. The farmer proudly displayed his largest and most perfect apple.
+7. She decided to make a healthy snack by cutting up an apple.
+8. The child eagerly took a big bite out of the freshly picked apple.
+9. He carefully polished the surface of the green apple.
+10. The aroma of cinnamon and baked apple filled the kitchen.</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>10</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The model's answer correctly provides 10 sentences ending with 'apple'.</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -775,26 +787,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sure, here are 10 sentences each ending with a number from 1 to 10:
-1. I have only one apple left in my basket, so I will eat it for lunch today. 1
-2. There are two cats sitting on the fence outside my window. 2
-3. She bought three new books from the bookstore yesterday. 3
-4. The four seasons of the year are spring, summer, autumn, and winter. 4
-5. He has five fingers on each hand, just like everyone else. 5
-6. We need six eggs to make this cake recipe. 6
-7. There are seven days in a week, starting with Sunday. 7
-8. The spider has eight legs, which helps it move quickly. 8
-9. A cat is said to have nine lives according to popular belief. 9
-10. There are ten players on the basketball court during a game. 10</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+          <t>1. I have one apple in my basket, making it a total of 1.
+2. She bought two tickets for the concert, so now she has 2.
+3. The recipe calls for three cups of flour, which means I need 3.
+4. He has four siblings, and he is the youngest of the 4.
+5. There are five books on the shelf, and I have read all 5.
+6. We need six volunteers for the event, and so far we have 6.
+7. The team scored seven goals in the match, bringing their total to 7.
+8. She has eight different colors of paint, each labeled from 1 to 8.
+9. The cat had nine lives, but now it only has 9.
+10. There are ten students in the class, and each one has a number from 1 to 10.</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>10</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The model's answer correctly provides 10 sentences ending with numbers 1 to 10.</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -810,7 +821,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sure, here's a fully working snake game in Python using the Pygame library:
+          <t>Sure! Below is a simple implementation of the classic Snake game using Python and the Pygame library. If you don't have Pygame installed, you can install it using pip:
+```sh
+pip install pygame
+```
+Here's the complete code for the Snake game:
 ```python
 import pygame
 import time
@@ -827,17 +842,17 @@
 # Define display dimensions
 dis_width = 800
 dis_height = 600
-# Create display
+# Create the display
 dis = pygame.display.set_mode((dis_width, dis_height))
-pygame.display.set_caption('Snake Game by World-Class Software Engineer')
-# Define clock
+pygame.display.set_caption('Snake Game by OpenAI')
+# Define the clock
 clock = pygame.time.Clock()
 # Define snake block size and speed
 snake_block = 10
 snake_speed = 15
 # Define fonts
-font_style = pygame.font.SysFont(None, 50)
-score_font = pygame.font.SysFont(None, 35)
+font_style = pygame.font.SysFont("bahnschrift", 25)
+score_font = pygame.font.SysFont("comicsansms", 35)
 def our_snake(snake_block, snake_list):
     for x in snake_list:
         pygame.draw.rect(dis, black, [x[0], x[1], snake_block, snake_block])
@@ -909,78 +924,81 @@
     quit()
 gameLoop()
 ```
-### Step-by-Step Reasoning:
-1. **Initialization**:
-   - Import the necessary libraries (`pygame`, `time`, `random`).
-   - Initialize Pygame with `pygame.init()`.
-2. **Define Colors and Display**:
-   - Define color constants for use in the game.
-   - Set the display dimensions and create the display window.
-3. **Game Settings**:
-   - Define the snake block size and speed.
-   - Set up fonts for displaying messages and scores.
-4. **Helper Functions**:
-   - `our_snake()`: Draws the snake on the screen.
-   - `message()`: Displays messages on the screen.
-5. **Main Game Loop**:
-   - Initialize game state variables.
-   - Create the main game loop that runs until the game is over.
-   - Handle game over state and user input for restarting or quitting.
-   - Handle user input for controlling the snake.
-   - Update the snake's position and check for collisions.
-   - Draw the snake and food on the screen.
-   - Check if the snake has eaten the food and update the score and snake length.
-   - Control the game speed with `clock.tick(snake_speed)`.
-6. **Game Over and Quit**:
-   - Quit Pygame and exit the program when the game is over.
-This code provides a basic but fully functional snake game. You can run it in any Python environment with Pygame installed.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
+### Explanation:
+1. **Initialization**: The game initializes Pygame, sets up the display, and defines colors, dimensions, and fonts.
+2. **Game Loop**: The main game loop handles events, updates the snake's position, checks for collisions, and updates the display.
+3. **Snake and Food**: The snake is represented as a list of coordinates, and food is randomly placed on the screen.
+4. **Collision Detection**: The game checks for collisions with the walls, itself, and food.
+5. **Game Over**: If the snake collides with the wall or itself, the game displays a message and waits for the player to either quit or restart.
+To run the game, simply save the code to a file (e.g., `snake_game.py`) and run it with Python:
+```sh
+python snake_game.py
+```
+Enjoy your game!</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>The model's answer is correct but includes extra information and a more detailed implementation compared to the expected output.</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Suppose I have a cabbage, a goat and a lion, and I need to get them across a river. I have a boat that can only carry myself and a single other item. I am not allowed to leave the cabbage and lion alone together, and I am not allowed to leave the lion and goat alone together. How can I safely get all three across?</t>
+          <t>Suppose I have a cabbage, a goat, and a lion, and I need to get them across a river. I have a boat that can only carry myself and a single other item. I am not allowed to leave the cabbage and lion alone together, and I am not allowed to leave the lion and goat alone together. How can I safely get all three across?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1. Take the lion across the river first and leave it on the other side.
-2. Go back alone and take the goat across the river.
-3. Leave the goat on the other side and take the lion back.
-4. Leave the lion on the starting side and take the cabbage across the river.
-5. Leave the cabbage with the goat and return alone to pick up the lion.
-6. Take the lion across the river.</t>
+          <t>To solve this problem, you need to carefully plan the trips to ensure that the lion is never left alone with the goat and the lion is never left alone with the cabbage. Here is a step-by-step solution:
+1. **Take the lion across the river first.**
+   - Now the lion is on the other side, and the goat and cabbage are on the starting side.
+2. **Return alone to the starting side.**
+   - The lion is on the other side, and you are back with the goat and cabbage.
+3. **Take the goat across the river.**
+   - Now the lion and goat are on the other side, and the cabbage is on the starting side.
+4. **Bring the lion back to the starting side.**
+   - Now the goat is on the other side, and you are back with the lion and cabbage on the starting side.
+5. **Take the cabbage across the river.**
+   - Now the goat and cabbage are on the other side, and the lion is on the starting side.
+6. **Return alone to the starting side.**
+   - The goat and cabbage are on the other side, and you are back with the lion on the starting side.
+7. **Finally, take the lion across the river.**
+   - Now all three items (lion, goat, and cabbage) are safely on the other side.
+By following these steps, you ensure that the lion is never left alone with the goat and the lion is never left alone with the cabbage.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>You can safely get all three across by following a specific sequence of crossings.
-1. First, take the lion across the river and leave it on the other side.
-2. Return alone to the original side.
-3. Take the goat across the river.
-4. Leave the goat on the other side, but take the lion back with you to the original side.
-5. Take the cabbage across the river.
-6. Return alone to the original side.
-7. Finally, take the lion across the river again.
+          <t>To solve this problem, we need to ensure that at no point are the cabbage and lion left alone together, nor the lion and goat left alone together. Here is a step-by-step solution:
+1. **Take the lion across the river first.**
+   - Now the lion is on the other side, and the goat and cabbage are on the starting side.
+2. **Return alone to the starting side.**
+   - The lion is alone on the other side, and the goat and cabbage are on the starting side.
+3. **Take the goat across the river.**
+   - Now the lion and goat are on the other side, and the cabbage is on the starting side.
+4. **Return with the lion to the starting side.**
+   - Now the goat is alone on the other side, and the lion and cabbage are on the starting side.
+5. **Take the cabbage across the river.**
+   - Now the goat and cabbage are on the other side, and the lion is on the starting side.
+6. **Return alone to the starting side.**
+   - The goat and cabbage are on the other side, and the lion is on the starting side.
+7. **Take the lion across the river again.**
+   - Now all three items (lion, goat, and cabbage) are on the other side.
 By following these steps, you ensure that the lion is never left alone with the goat, and the lion is never left alone with the cabbage.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The model's answer correctly follows the steps outlined in the expected output to ensure the lion is never left alone with the goat or the cabbage.</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -996,34 +1014,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The ROI (Return on Investment) for the year is 5.28%.
-To calculate the ROI, we use the formula:
-\[ \text{ROI} = \frac{\text{Operating Profit}}{\text{Average Net Book Value of Assets}} \]
-First, we need to determine the net book value of the assets at the beginning and end of the year.
-1. **Net Book Value at the Beginning of the Year:**
-   \[ \text{Net Book Value}_{\text{beginning}} = \text{Cost of Assets} - \text{Accumulated Depreciation} \]
-   \[ \text{Net Book Value}_{\text{beginning}} = \$20,000,000 - \$5,000,000 = \$15,000,000 \]
-2. **Net Book Value at the End of the Year:**
-   Since no new assets were purchased and there was a depreciation expense of $1,000,000:
-   \[ \text{Accumulated Depreciation}_{\text{end}} = \$5,000,000 + \$1,000,000 = \$6,000,000 \]
-   \[ \text{Net Book Value}_{\text{end}} = \$20,000,000 - \$6,000,000 = \$14,000,000 \]
-3. **Average Net Book Value of Assets:**
-   \[ \text{Average Net Book Value} = \frac{\text{Net Book Value}_{\text{beginning}} + \text{Net Book Value}_{\text{end}}}{2} \]
-   \[ \text{Average Net Book Value} = \frac{\$15,000,000 + \$14,000,000}{2} = \$14,500,000 \]
-4. **Calculate ROI:**
-   \[ \text{ROI} = \frac{\$950,000}{\$14,500,000} \]
-   \[ \text{ROI} = 0.0655 \]
-   \[ \text{ROI} = 6.55\% \]
-Therefore, the ROI for the year is 6.55%.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+          <t>To calculate the Return on Investment (ROI) for Vegan Steaks, we need to follow these steps:
+1. **Determine the Net Book Value of Assets at the Beginning of the Year:**
+   - Cost of assets: $20,000,000
+   - Accumulated depreciation: $5,000,000
+   - Net book value at the beginning of the year = Cost of assets - Accumulated depreciation
+   \[
+   \text{Net book value at the beginning of the year} = \$20,000,000 - \$5,000,000 = \$15,000,000
+   \]
+2. **Calculate the Net Book Value of Assets at the End of the Year:**
+   - Depreciation expense for the year: $1,000,000
+   - Accumulated depreciation at the end of the year = Accumulated depreciation at the beginning of the year + Depreciation expense for the year
+   \[
+   \text{Accumulated depreciation at the end of the year} = \$5,000,000 + \$1,000,000 = \$6,000,000
+   \]
+   - Net book value at the end of the year = Cost of assets - Accumulated depreciation at the end of the year
+   \[
+   \text{Net book value at the end of the year} = \$20,000,000 - \$6,000,000 = \$14,000,000
+   \]
+3. **Calculate the Average Net Book Value of Assets for the Year:**
+   - Average net book value = (Net book value at the beginning of the year + Net book value at the end of the year) / 2
+   \[
+   \text{Average net book value} = \frac{\$15,000,000 + \$14,000,000}{2} = \frac{\$29,000,000}{2} = \$14,500,000
+   \]
+4. **Calculate the ROI:**
+   - Operating profit for the year: $950,000
+   - ROI = (Operating profit / Average net book value of assets) * 100
+   \[
+   \text{ROI} = \left(\frac{\$950,000}{\$14,500,000}\right) \times 100
+   \]
+   \[
+   \text{ROI} = \left(\frac{950,000}{14,500,000}\right) \times 100 \approx 6.55\%
+   \]
+Therefore, the ROI for Vegan Steaks for the year is approximately **6.55%**.</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>10</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The model's answer correctly calculates the ROI as 6.55%, matching the expected output.</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1034,27 +1066,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 killers left in the room</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>There is 1 killer left in the room.
-Let's break it down step by step:
+          <t>Let's break down the scenario step by step to ensure we understand it correctly:
 1. Initially, there are 2 killers in the room.
 2. One guy enters the room.
 3. This guy kills 1 of the 2 killers.
-4. After the killing, 1 killer remains in the room.
-Therefore, there is 1 killer left in the room.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+Now, let's analyze the situation:
+- Initially: 2 killers in the room.
+- After the guy kills 1 killer: 1 killer is dead, so 1 killer remains.
+However, we need to consider the status of the guy who killed the killer. By killing someone, he himself becomes a killer.
+So, after the guy kills one of the original killers, the room now contains:
+- The remaining original killer (1 killer).
+- The guy who killed the original killer (now also a killer).
+Therefore, the total number of killers left in the room is:
+1 (original killer) + 1 (new killer) = 2 killers.
+So, there are 2 killers left in the room.</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The model's answer correctly identifies that there are 2 killers left in the room, matching the expected output.</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1073,7 +1112,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Here is the bookstore inventory in JSON format:
+          <t>Certainly! Here is the given bookstore inventory information in JSON format:
 ```json
 {
   "Bookstore Inventory": [
@@ -1095,85 +1134,96 @@
   ]
 }
 ```
-Reasoning step by step:
-1. Start with the main object, which is "Bookstore Inventory".
-2. This main object contains an array of book objects.
-3. Each book object has three properties: "Title", "Author", and "Quantity".
-4. Convert each book entry into a JSON object with the appropriate key-value pairs.
-5. Enclose the entire structure in curly braces `{}` to denote the main object and square brackets `[]` to denote the array of books.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+This JSON structure represents the bookstore inventory with each book's title, author, and quantity.</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>The model's answer matches the expected output exactly.</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What is the maximum annual vacation accrual for full-time employees with more than 10 years of credited service? Cite the document source.</t>
+          <t xml:space="preserve">What is the maximum annual vacation accrual for full-time employees with more than 10 years of credited service?  
+Context:Accrued and unused vacation up to the cap noted below can be carried over year over year.
+Full-time Employees (80 hours per bi-weekly pay period) Maximum Annual Vacation Accrual 120 Hours (15 Days) 160 Hours (20 Days) 200 Hours (25 Days)
+Maximum Vacation Accrual Cap 180 hours 240 hours 300 hours
+Years of Credited Services
+&lt; 5 Years 5-10 Years &gt; 10 Years
+2
+Redhorse Paid Time Off Program
+Effective 12.1.2023
+Part-time Employees (60-79 hours worked per bi-weekly pay period) Maximum Annual Vacation Accrual 80 Hours (10 Days) 120 Hours (15 Days) 160 Hours (20 Days)
+Maximum Vacation Accrual Cap 120 hours 180 hours 240 hours
+Years of Credited Services
+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>200 Hours (25 Days), according to Document 31.</t>
+          <t>200 Hours (25 Days).</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The maximum annual vacation accrual for full-time employees with more than 10 years of credited service is 240 hours, as stated in the employee handbook.
-To ensure the accuracy of this information, let's break down the reasoning step by step:
-1. **Identify the Source**: The information is cited from the employee handbook, which is the authoritative document for company policies regarding vacation accrual.
-2. **Determine the Criteria**: The criteria specified are for full-time employees with more than 10 years of credited service.
-3. **Locate the Relevant Section**: In the employee handbook, there is typically a section dedicated to vacation or leave policies. This section will outline the accrual rates based on years of service.
-4. **Verify the Accrual Rate**: According to the handbook, employees with more than 10 years of service accrue vacation at a rate that allows them to reach a maximum of 240 hours annually.
-By following these steps, we confirm that the maximum annual vacation accrual for full-time employees with more than 10 years of credited service is indeed 240 hours, as per the employee handbook.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>To determine the maximum annual vacation accrual for full-time employees with more than 10 years of credited service, we need to look at the provided data for full-time employees and the corresponding years of credited service.
+From the context provided:
+- Full-time Employees (80 hours per bi-weekly pay period)
+  - Maximum Annual Vacation Accrual:
+    - &lt; 5 Years: 120 Hours (15 Days)
+    - 5-10 Years: 160 Hours (20 Days)
+    - &gt; 10 Years: 200 Hours (25 Days)
+  - Maximum Vacation Accrual Cap:
+    - &lt; 5 Years: 180 hours
+    - 5-10 Years: 240 hours
+    - &gt; 10 Years: 300 hours
+For full-time employees with more than 10 years of credited service:
+- The maximum annual vacation accrual is 200 hours (25 days).
+Therefore, the maximum annual vacation accrual for full-time employees with more than 10 years of credited service is **200 hours (25 days)**.</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>The model's answer matches the expected output exactly.</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What happens if I used vacation that was not accrued, and I leave the company?</t>
+          <t>What happens if I used vacation that was not accrued, and I leave the company? Context: Redhorse Paid Time Off Program FAQs Effective 1.1.2022 What vacation do I get paid for if I leave the company? If you leave Redhorse, unused and accrued vacation will be paid out. Vacation cannot be used to extend employment or as a last day worked What happens if I used vacation that was not accrued, and I leave the company? Upon separation of employment for any reason, either voluntary or involuntary, the remaining accrued and unused vacation balance will be paid out on the final paycheck. For all non-California employees carrying a negative vacation balance, if employment is terminated for any reason, acknowledgment of this policy authorizes any amounts owed to be withheld from the final paycheck. Any additional monies owed will be due to Redhorse within 30 days of the last day of work. For all California employees carrying a negative vacation balance, if employment is terminated for any reasons, acknowledgement of this policy states that all monies owed will be due to Redhorse within 30 days of the last day worked.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Upon separation of employment for any reason, either voluntary or involuntary, the remaining accrued and unused vacation balance will be paid out on the final paycheck. For non-California employees carrying a negative vacation balance, if employment is terminated for any reason, acknowledgment of this policy authorizes any amounts owed to be withheld from the final paycheck. Any additional monies owed will be due to Redhorse within 30 days of the last day of work. For California employees carrying a negative vacation balance, if employment is terminated for any reasons, acknowledgement of this policy states that all monies owed will be due to Redhorse within 30 days of the last day worked. (a complete answer must mention both cali and non-cali parts.)</t>
+          <t>Upon separation of employment for any reason, either voluntary or involuntary, the remaining accrued and unused vacation balance will be paid out on the final paycheck. For non-California employees carrying a negative vacation balance, if employment is terminated for any reason, acknowledgment of this policy authorizes any amounts owed to be withheld from the final paycheck. Any additional monies owed will be due to Redhorse within 30 days of the last day of work. For California employees carrying a negative vacation balance, if employment is terminated for any reasons, acknowledgement of this policy states that all monies owed will be due to Redhorse within 30 days of the last day worked.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>If you used vacation that was not accrued and then leave the company, you may be required to repay the company for the unaccrued vacation time used.
-1. **Company Policy Review**: First, check the company's vacation policy. Most companies have specific guidelines on how vacation accrual and usage are handled, including what happens if an employee leaves the company.
-2. **Accrual System**: Understand the accrual system. Vacation time is typically accrued over time, meaning you earn a certain amount of vacation hours for each period worked (e.g., per month).
-3. **Usage of Unaccrued Vacation**: If you used vacation time that you had not yet accrued, this means you took more time off than you had earned.
-4. **Leaving the Company**: When you leave the company, the HR department will usually conduct an exit process that includes a review of your accrued and used vacation time.
-5. **Repayment Requirement**: If you have used more vacation time than you accrued, the company may require you to repay the value of the unaccrued vacation. This could be deducted from your final paycheck or you might be asked to pay it back directly.
-6. **Legal Considerations**: Some jurisdictions have specific laws regarding vacation pay and deductions from final paychecks, so the company's actions must comply with local labor laws.
-7. **Final Settlement**: The final settlement will reflect any adjustments for the unaccrued vacation time used, ensuring that the company recovers the value of the excess vacation taken.
-In summary, you may need to repay the company for any unaccrued vacation time used if you leave the company.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
+          <t>Based on the Redhorse Paid Time Off Program FAQs effective 1.1.2022, here's what happens if you used vacation that was not accrued and you leave the company:
+1. **Unused and Accrued Vacation**: If you have any unused and accrued vacation, it will be paid out in your final paycheck.
+2. **Negative Vacation Balance**:
+   - **Non-California Employees**: If you have a negative vacation balance (i.e., you used more vacation than you had accrued), the company is authorized to withhold the amount owed from your final paycheck. If the amount owed exceeds your final paycheck, you will need to pay the remaining balance to Redhorse within 30 days of your last day of work.
+   - **California Employees**: If you have a negative vacation balance, you will need to pay the amount owed to Redhorse within 30 days of your last day of work. The company cannot withhold this amount from your final paycheck due to California labor laws.
+In summary, if you used vacation that was not accrued and you leave the company, you will be responsible for repaying the negative balance. The method of repayment depends on whether you are a California employee or not.</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The model's answer is correct but includes extra details about the FAQs and California labor laws.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/evaluation_results_gpt-4o.xlsx
+++ b/output/evaluation_results_gpt-4o.xlsx
@@ -478,7 +478,7 @@
 - Let the second digit be \( b \).
 - Let the third digit be \( c \).
 From the problem, we have the following relationships:
-1. The second digit \( b \) is four times as big as the third digit \( c \):
+1. The second digit \( b \) is four times the third digit \( c \):
    \[
    b = 4c
    \]
@@ -486,51 +486,48 @@
    \[
    a = b - 3
    \]
-Since \( a \), \( b \), and \( c \) are digits, they must be integers between 0 and 9. Let's use these relationships to find the values of \( a \), \( b \), and \( c \).
-First, since \( b = 4c \), \( b \) must be a multiple of 4. The possible values for \( c \) (since \( c \) is a digit) are 0, 1, 2, and 3 (because \( 4 \times 4 = 16 \) which is not a digit).
-Let's examine each possible value of \( c \):
-1. If \( c = 0 \):
+Since \( a \), \( b \), and \( c \) are digits, they must be integers between 0 and 9 inclusive. Let's analyze the constraints step by step.
+First, since \( b = 4c \), \( b \) must be a multiple of 4. The possible values for \( c \) (since \( c \) is a digit) are:
+\[
+c = 0, 1, 2
+\]
+Let's evaluate each case:
+1. **If \( c = 0 \)**:
    \[
    b = 4 \times 0 = 0
    \]
    \[
-   a = b - 3 = 0 - 3 = -3 \quad (\text{not a valid digit})
+   a = 0 - 3 = -3
    \]
-   This case is not possible.
-2. If \( c = 1 \):
+   This is not possible since \( a \) must be a digit between 0 and 9.
+2. **If \( c = 1 \)**:
    \[
    b = 4 \times 1 = 4
    \]
    \[
-   a = b - 3 = 4 - 3 = 1
+   a = 4 - 3 = 1
    \]
-   This case is valid. So, the digits are \( a = 1 \), \( b = 4 \), and \( c = 1 \).
-3. If \( c = 2 \):
+   Here, \( a = 1 \), \( b = 4 \), and \( c = 1 \). This is a valid set of digits.
+3. **If \( c = 2 \)**:
    \[
    b = 4 \times 2 = 8
    \]
    \[
-   a = b - 3 = 8 - 3 = 5
+   a = 8 - 3 = 5
    \]
-   This case is also valid. So, the digits are \( a = 5 \), \( b = 8 \), and \( c = 2 \).
-4. If \( c = 3 \):
-   \[
-   b = 4 \times 3 = 12 \quad (\text{not a valid digit})
-   \]
-   This case is not possible.
-Thus, the two possible three-digit numbers are:
-- \( 141 \)
-- \( 582 \)
-However, the problem specifies a single number, so we need to verify which one fits all conditions without ambiguity. Given the constraints and typical problem setups, the most likely intended solution is the one that fits the simplest interpretation:
-The number is \( 582 \).</t>
+   Here, \( a = 5 \), \( b = 8 \), and \( c = 2 \). This is also a valid set of digits.
+Thus, we have two possible three-digit numbers:
+- \( 141 \) (from \( a = 1 \), \( b = 4 \), \( c = 1 \))
+- \( 582 \) (from \( a = 5 \), \( b = 8 \), \( c = 2 \))
+However, the problem specifies that the second digit is four times the third digit, and the first digit is three less than the second digit. Both conditions are satisfied in both cases. Therefore, the three-digit number could be either \( 141 \) or \( 582 \).</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The model correctly identifies both possible numbers but incorrectly concludes that 582 is the single intended solution.</t>
+          <t>The model correctly identified both possible three-digit numbers, 141 and 582, as expected.</t>
         </is>
       </c>
     </row>
@@ -548,10 +545,9 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Let's break this down step by step:
-1. Today, you have 3 apples.
-2. Yesterday, you ate one apple.
-The number of apples you have today is not affected by the number of apples you ate yesterday. Therefore, the number of apples you have now is the same as the number you have today.
-So, you have 3 apples now.</t>
+1. You currently have 3 apples.
+2. The fact that you ate one apple yesterday does not affect the number of apples you have today.
+Therefore, you still have 3 apples today.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -559,7 +555,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The model's answer correctly concludes that you have 3 apples now.</t>
+          <t>The model's answer correctly explains why you still have 3 apples today.</t>
         </is>
       </c>
     </row>
@@ -581,16 +577,25 @@
           <t>To determine how long it will take to dry 20 towels, we need to understand the relationship between the number of towels and the drying time. 
 Given:
 - It takes 1 hour to dry 15 towels.
-We can assume that the drying process is linear, meaning the time required to dry the towels is directly proportional to the number of towels.
-First, let's find the drying rate in terms of towels per hour:
-\[ \text{Drying rate} = \frac{15 \text{ towels}}{1 \text{ hour}} = 15 \text{ towels per hour} \]
-Next, we need to find out how many hours it will take to dry 20 towels at this rate:
-\[ \text{Time required} = \frac{20 \text{ towels}}{15 \text{ towels per hour}} \]
-Simplify the fraction:
-\[ \text{Time required} = \frac{20}{15} \text{ hours} = \frac{4}{3} \text{ hours} \]
-Convert \(\frac{4}{3}\) hours to minutes for a clearer understanding:
-\[ \frac{4}{3} \text{ hours} = \frac{4}{3} \times 60 \text{ minutes} = 80 \text{ minutes} \]
-Therefore, it will take 80 minutes (or \(\frac{4}{3}\) hours) to dry 20 towels.</t>
+Assuming the drying process is linear and the drying capacity is constant, we can set up a proportion to find the time required to dry 20 towels.
+Let \( t \) be the time in hours to dry 20 towels.
+The proportion can be set up as follows:
+\[
+\frac{1 \text{ hour}}{15 \text{ towels}} = \frac{t \text{ hours}}{20 \text{ towels}}
+\]
+To solve for \( t \), we cross-multiply:
+\[
+1 \times 20 = 15 \times t
+\]
+This simplifies to:
+\[
+20 = 15t
+\]
+Next, we solve for \( t \) by dividing both sides by 15:
+\[
+t = \frac{20}{15} = \frac{4}{3} \text{ hours}
+\]
+Thus, it will take \(\frac{4}{3}\) hours, or 1 hour and 20 minutes, to dry 20 towels.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -598,7 +603,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The model's answer only addresses the linear drying case (1.33 hours) and does not consider the parallel drying case (1 hour).</t>
+          <t>The model's answer only addresses the drying time for one scenario (drying one by one) and does not consider the parallel drying case.</t>
         </is>
       </c>
     </row>
@@ -621,7 +626,7 @@
 Now, let's consider the perspective of one of Jessica's brothers:
 - He has 1 sister (Jessica) and 1 additional sister (Jessica's sister).
 Therefore, each of Jessica's brothers has 2 sisters.
-So, the answer is that each of Jessica's brothers has 2 sisters.</t>
+So, each of Jessica's brothers has 2 sisters.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -629,7 +634,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The model's answer correctly identifies that each of Jessica's brothers has 2 sisters.</t>
+          <t>The model's answer correctly identifies that each of Jessica's brothers has 2 sisters, matching the expected output.</t>
         </is>
       </c>
     </row>
@@ -704,7 +709,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The model's answer is correct and matches the expected output in both logic and conclusion.</t>
+          <t>The model's answer correctly follows the expected output's logic and steps to determine that 9.9 is greater than 9.11.</t>
         </is>
       </c>
     </row>
@@ -718,17 +723,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>the pattern is adding then minus 1. Thus, 3+4=7, 7-1 = 6. Final answer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Let's analyze the given equations step by step:
 1. The first equation is \(1 + 2 = 2\). Normally, \(1 + 2\) equals \(3\), but here it is given as \(2\). This suggests that the result might be the second number in the equation.
-2. The second equation is \(2 + 3 = 4\). Normally, \(2 + 3\) equals \(5\), but here it is given as \(4\). This again suggests that the result might be the second number in the equation.
-3. The third equation is \(3 + 4 = ?\). Following the pattern observed in the previous equations, the result should be the second number in the equation.
-Therefore, \(3 + 4 = 4\).
-So, the answer is \(4\).</t>
+2. The second equation is \(2 + 3 = 4\). Normally, \(2 + 3\) equals \(5\), but here it is given as \(4\). Again, this suggests that the result might be the second number in the equation.
+Following this pattern, the result of the equation seems to be the second number in the equation.
+3. The third equation is \(3 + 4 = ?\). According to the pattern observed, the result should be the second number in the equation, which is \(4\).
+Therefore, \(3 + 4 = 4\).</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -736,7 +741,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The model's answer follows an incorrect pattern and does not match the expected output.</t>
+          <t>The model's answer follows a different pattern and arrives at an incorrect final answer.</t>
         </is>
       </c>
     </row>
@@ -760,8 +765,8 @@
 5. During the picnic, everyone enjoyed a refreshing bite of a juicy apple.
 6. The farmer proudly displayed his largest and most perfect apple.
 7. She decided to make a healthy snack by cutting up an apple.
-8. The child eagerly took a big bite out of the freshly picked apple.
-9. He carefully polished the surface of the green apple.
+8. The child eagerly pointed to the fruit stand and asked for an apple.
+9. He polished the surface of the desk and placed a single, perfect apple.
 10. The aroma of cinnamon and baked apple filled the kitchen.</t>
         </is>
       </c>
@@ -770,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The model's answer correctly provides 10 sentences ending with 'apple'.</t>
+          <t>All sentences correctly end with 'apple'.</t>
         </is>
       </c>
     </row>
@@ -787,16 +792,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1. I have one apple in my basket, making it a total of 1.
-2. She bought two tickets for the concert, so now she has 2.
-3. The recipe calls for three cups of flour, which means I need 3.
-4. He has four siblings, and he is the youngest of the 4.
-5. There are five books on the shelf, and I have read all 5.
-6. We need six volunteers for the event, and so far we have 6.
-7. The team scored seven goals in the match, bringing their total to 7.
-8. She has eight different colors of paint, each labeled from 1 to 8.
-9. The cat had nine lives, but now it only has 9.
-10. There are ten students in the class, and each one has a number from 1 to 10.</t>
+          <t>1. I have one apple in my basket, and it's the only one.
+2. She bought two tickets for the concert, so we can both go.
+3. The cat had three kittens, all of which were adorable.
+4. He finished the race in fourth place, which was a great achievement.
+5. There are five books on the shelf, each one a different genre.
+6. The recipe calls for six eggs, so make sure to buy enough.
+7. We need seven volunteers to help with the event this weekend.
+8. The octopus has eight tentacles, each one with its own function.
+9. She celebrated her ninth birthday with a big party and lots of friends.
+10. The project is due in ten days, so we need to work quickly.</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -821,11 +826,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sure! Below is a simple implementation of the classic Snake game using Python and the Pygame library. If you don't have Pygame installed, you can install it using pip:
+          <t>Sure! Below is a simple implementation of the classic Snake game using Python and the Pygame library. To run this code, you need to have Python and Pygame installed on your system.
+First, you can install Pygame using pip if you haven't already:
 ```sh
 pip install pygame
 ```
-Here's the complete code for the Snake game:
+Now, here is the complete code for the Snake game:
 ```python
 import pygame
 import time
@@ -844,7 +850,7 @@
 dis_height = 600
 # Create the display
 dis = pygame.display.set_mode((dis_width, dis_height))
-pygame.display.set_caption('Snake Game by OpenAI')
+pygame.display.set_caption('Snake Game by YourName')
 # Define the clock
 clock = pygame.time.Clock()
 # Define snake block size and speed
@@ -924,13 +930,8 @@
     quit()
 gameLoop()
 ```
-### Explanation:
-1. **Initialization**: The game initializes Pygame, sets up the display, and defines colors, dimensions, and fonts.
-2. **Game Loop**: The main game loop handles events, updates the snake's position, checks for collisions, and updates the display.
-3. **Snake and Food**: The snake is represented as a list of coordinates, and food is randomly placed on the screen.
-4. **Collision Detection**: The game checks for collisions with the walls, itself, and food.
-5. **Game Over**: If the snake collides with the wall or itself, the game displays a message and waits for the player to either quit or restart.
-To run the game, simply save the code to a file (e.g., `snake_game.py`) and run it with Python:
+This code sets up a basic Snake game where the player controls a snake that grows longer each time it eats food. The game ends if the snake runs into the screen edges or itself. The player can restart the game by pressing 'C' or quit by pressing 'Q' when the game is over.
+To run the game, simply save the code to a file, for example `snake_game.py`, and run it using Python:
 ```sh
 python snake_game.py
 ```
@@ -942,7 +943,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The model's answer is correct but includes extra information and a more detailed implementation compared to the expected output.</t>
+          <t>The model's answer is correct but includes extra information and uses different variable names and colors compared to the expected output.</t>
         </is>
       </c>
     </row>
@@ -974,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>To solve this problem, we need to ensure that at no point are the cabbage and lion left alone together, nor the lion and goat left alone together. Here is a step-by-step solution:
+          <t>To solve this problem, we need to ensure that at no point are the lion and goat left alone together, nor the lion and cabbage left alone together. Here is a step-by-step solution:
 1. **Take the lion across the river first.**
    - Now the lion is on the other side, and the goat and cabbage are on the starting side.
 2. **Return alone to the starting side.**
@@ -988,7 +989,7 @@
 6. **Return alone to the starting side.**
    - The goat and cabbage are on the other side, and the lion is on the starting side.
 7. **Take the lion across the river again.**
-   - Now all three items (lion, goat, and cabbage) are on the other side.
+   - Now all three (lion, goat, and cabbage) are on the other side.
 By following these steps, you ensure that the lion is never left alone with the goat, and the lion is never left alone with the cabbage.</t>
         </is>
       </c>
@@ -997,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The model's answer correctly follows the steps outlined in the expected output to ensure the lion is never left alone with the goat or the cabbage.</t>
+          <t>The model's answer matches the expected output in logic and steps.</t>
         </is>
       </c>
     </row>
@@ -1014,39 +1015,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>To calculate the Return on Investment (ROI) for Vegan Steaks, we need to follow these steps:
+          <t>To calculate the Return on Investment (ROI) for Vegan Steaks for the year, we need to follow these steps:
 1. **Determine the Net Book Value of Assets at the Beginning of the Year:**
    - Cost of assets: $20,000,000
    - Accumulated depreciation: $5,000,000
    - Net book value at the beginning of the year = Cost of assets - Accumulated depreciation
-   \[
-   \text{Net book value at the beginning of the year} = \$20,000,000 - \$5,000,000 = \$15,000,000
-   \]
+   - Net book value at the beginning of the year = $20,000,000 - $5,000,000 = $15,000,000
 2. **Calculate the Net Book Value of Assets at the End of the Year:**
    - Depreciation expense for the year: $1,000,000
    - Accumulated depreciation at the end of the year = Accumulated depreciation at the beginning of the year + Depreciation expense for the year
-   \[
-   \text{Accumulated depreciation at the end of the year} = \$5,000,000 + \$1,000,000 = \$6,000,000
-   \]
+   - Accumulated depreciation at the end of the year = $5,000,000 + $1,000,000 = $6,000,000
    - Net book value at the end of the year = Cost of assets - Accumulated depreciation at the end of the year
-   \[
-   \text{Net book value at the end of the year} = \$20,000,000 - \$6,000,000 = \$14,000,000
-   \]
+   - Net book value at the end of the year = $20,000,000 - $6,000,000 = $14,000,000
 3. **Calculate the Average Net Book Value of Assets for the Year:**
    - Average net book value = (Net book value at the beginning of the year + Net book value at the end of the year) / 2
-   \[
-   \text{Average net book value} = \frac{\$15,000,000 + \$14,000,000}{2} = \frac{\$29,000,000}{2} = \$14,500,000
-   \]
+   - Average net book value = ($15,000,000 + $14,000,000) / 2 = $14,500,000
 4. **Calculate the ROI:**
    - Operating profit for the year: $950,000
    - ROI = (Operating profit / Average net book value of assets) * 100
-   \[
-   \text{ROI} = \left(\frac{\$950,000}{\$14,500,000}\right) \times 100
-   \]
-   \[
-   \text{ROI} = \left(\frac{950,000}{14,500,000}\right) \times 100 \approx 6.55\%
-   \]
-Therefore, the ROI for Vegan Steaks for the year is approximately **6.55%**.</t>
+   - ROI = ($950,000 / $14,500,000) * 100
+   - ROI = 0.0655 * 100
+   - ROI = 6.55%
+Therefore, the ROI for Vegan Steaks for the year is **6.55%**.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1077,13 +1067,13 @@
 3. This guy kills 1 of the 2 killers.
 Now, let's analyze the situation:
 - Initially: 2 killers in the room.
-- After the guy kills 1 killer: 1 killer is dead, so 1 killer remains.
-However, we need to consider the status of the guy who killed the killer. By killing someone, he himself becomes a killer.
+- After the guy enters and kills 1 killer: 1 killer is dead, leaving 1 killer remaining.
+However, we must also consider the status of the guy who entered the room. By killing one of the killers, he himself becomes a killer.
 So, after the guy kills one of the original killers, the room now contains:
 - The remaining original killer (1 killer).
 - The guy who killed the original killer (now also a killer).
 Therefore, the total number of killers left in the room is:
-1 (original killer) + 1 (new killer) = 2 killers.
+1 (remaining original killer) + 1 (the guy who became a killer) = 2 killers.
 So, there are 2 killers left in the room.</t>
         </is>
       </c>
@@ -1092,7 +1082,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The model's answer correctly identifies that there are 2 killers left in the room, matching the expected output.</t>
+          <t>The model's answer correctly identifies that there are 2 killers left in the room.</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1102,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Certainly! Here is the given bookstore inventory information in JSON format:
+          <t>Here is the given bookstore inventory information converted into JSON format:
 ```json
 {
   "Bookstore Inventory": [
@@ -1133,8 +1123,7 @@
     }
   ]
 }
-```
-This JSON structure represents the bookstore inventory with each book's title, author, and quantity.</t>
+```</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1142,7 +1131,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The model's answer matches the expected output exactly.</t>
+          <t>The model's answer is correct and matches the expected output.</t>
         </is>
       </c>
     </row>
@@ -1171,20 +1160,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>To determine the maximum annual vacation accrual for full-time employees with more than 10 years of credited service, we need to look at the provided data for full-time employees and the corresponding years of credited service.
-From the context provided:
+          <t>To determine the maximum annual vacation accrual for full-time employees with more than 10 years of credited service, we need to look at the provided data for full-time employees and the corresponding years of service.
+The relevant section for full-time employees is:
 - Full-time Employees (80 hours per bi-weekly pay period)
-  - Maximum Annual Vacation Accrual:
-    - &lt; 5 Years: 120 Hours (15 Days)
-    - 5-10 Years: 160 Hours (20 Days)
-    - &gt; 10 Years: 200 Hours (25 Days)
-  - Maximum Vacation Accrual Cap:
-    - &lt; 5 Years: 180 hours
-    - 5-10 Years: 240 hours
-    - &gt; 10 Years: 300 hours
-For full-time employees with more than 10 years of credited service:
-- The maximum annual vacation accrual is 200 hours (25 days).
-Therefore, the maximum annual vacation accrual for full-time employees with more than 10 years of credited service is **200 hours (25 days)**.</t>
+  - Maximum Annual Vacation Accrual
+    - 120 Hours (15 Days)
+    - 160 Hours (20 Days)
+    - 200 Hours (25 Days)
+  - Maximum Vacation Accrual Cap
+    - 180 hours
+    - 240 hours
+    - 300 hours
+  - Years of Credited Services
+    - &lt; 5 Years
+    - 5-10 Years
+    - &gt; 10 Years
+For employees with more than 10 years of credited service, the maximum annual vacation accrual is:
+- 200 Hours (25 Days)
+Therefore, the maximum annual vacation accrual for full-time employees with more than 10 years of credited service is 200 hours (25 days).</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1192,7 +1185,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The model's answer matches the expected output exactly.</t>
+          <t>The model's answer correctly identifies the maximum annual vacation accrual for full-time employees with more than 10 years of credited service as 200 hours (25 days).</t>
         </is>
       </c>
     </row>
@@ -1209,12 +1202,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Based on the Redhorse Paid Time Off Program FAQs effective 1.1.2022, here's what happens if you used vacation that was not accrued and you leave the company:
-1. **Unused and Accrued Vacation**: If you have any unused and accrued vacation, it will be paid out in your final paycheck.
-2. **Negative Vacation Balance**:
-   - **Non-California Employees**: If you have a negative vacation balance (i.e., you used more vacation than you had accrued), the company is authorized to withhold the amount owed from your final paycheck. If the amount owed exceeds your final paycheck, you will need to pay the remaining balance to Redhorse within 30 days of your last day of work.
-   - **California Employees**: If you have a negative vacation balance, you will need to pay the amount owed to Redhorse within 30 days of your last day of work. The company cannot withhold this amount from your final paycheck due to California labor laws.
-In summary, if you used vacation that was not accrued and you leave the company, you will be responsible for repaying the negative balance. The method of repayment depends on whether you are a California employee or not.</t>
+          <t>Based on the provided information from the Redhorse Paid Time Off Program FAQs effective 1.1.2022, here's what happens if you used vacation that was not accrued and you leave the company:
+1. **Non-California Employees:**
+   - If you have a negative vacation balance (i.e., you used more vacation than you had accrued) and your employment is terminated for any reason, the company is authorized to withhold the amount owed from your final paycheck.
+   - If the amount owed exceeds your final paycheck, you will need to pay the remaining balance to Redhorse within 30 days of your last day of work.
+2. **California Employees:**
+   - If you have a negative vacation balance and your employment is terminated for any reason, you are required to pay back the amount owed to Redhorse within 30 days of your last day of work.
+   - The policy does not specify withholding from the final paycheck for California employees, but it does state that all monies owed must be paid back within the specified timeframe.
+In summary, if you leave the company with a negative vacation balance, you will need to repay the amount owed to Redhorse, either through withholding from your final paycheck (for non-California employees) or by direct payment within 30 days (for both non-California and California employees).</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1222,7 +1217,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The model's answer is correct but includes extra details about the FAQs and California labor laws.</t>
+          <t>The model's answer is correct but includes extra details not present in the expected output.</t>
         </is>
       </c>
     </row>
